--- a/data/trans_dic/P55_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,13 +524,19 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
-recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses</t>
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,18 +546,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -555,27 +575,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -588,6 +638,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,32 +658,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>17,54%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>18,64%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>18,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
         </is>
       </c>
     </row>
@@ -640,32 +726,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,03; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,88</t>
+          <t>8,64; 23,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>14,76; 20,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 21,62</t>
+          <t>11,69; 17,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,16; 12,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,33</t>
+          <t>8,09; 13,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 21,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,33; 22,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 13,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 16,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 20,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,33; 19,45</t>
         </is>
       </c>
     </row>
@@ -682,32 +798,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>18,68%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>18,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,49%</t>
         </is>
       </c>
     </row>
@@ -720,32 +866,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>10,0; 18,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 24,19</t>
+          <t>5,96; 13,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>13,72; 24,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 24,38</t>
+          <t>9,52; 18,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>9,06; 16,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 22,95</t>
+          <t>10,85; 20,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,01; 24,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 19,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 15,45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 15,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 22,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 16,53</t>
         </is>
       </c>
     </row>
@@ -762,19 +938,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -782,10 +958,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -800,19 +1006,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>6,26; 27,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>6,13; 18,51</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,12</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -820,10 +1026,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>7,12; 16,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 7,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 19,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 11,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -842,32 +1078,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,83%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>18,65%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>18,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -880,45 +1146,1082 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,85; 15,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 20,86</t>
+          <t>8,06; 15,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,2; 20,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,12</t>
+          <t>12,09; 16,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,14; 12,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,12</t>
+          <t>9,16; 13,85</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 20,89</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 21,1</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 13,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 13,33</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 20,02</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 18,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>176742</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>198806</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39339</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32213</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>178430</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>185974</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43379</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46401</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>355172</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>384780</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>82718</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>78614</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>130210; 268274</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>137940; 370438</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33106; 46009</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25943; 39612</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>145758; 220570</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>144584; 233170</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37215; 49882</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40236; 53341</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>297883; 453926</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>308656; 568024</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>74340; 92362</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>69600; 88319</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>179283</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115674</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13327</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9562</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>158205</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>196373</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8916</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>337489</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>312047</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25200</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>134447; 243747</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81618; 185949</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9759; 17144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6842; 13024</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>122365; 217996</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>148527; 281032</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8902; 15567</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6065; 12398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>269912; 416528</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>247553; 414441</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20803; 30707</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14656; 22644</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46930</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46144</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12414</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>100752</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>59343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26154; 113265</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25908; 78248</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29325; 68999</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3392; 28707</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67744; 165853</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36801; 95471</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>410634</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>361409</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52667</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41774</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>382779</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>394760</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55252</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55317</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>793413</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>756170</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>107918</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>97092</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>333494; 528901</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>272883; 531003</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44898; 60802</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35500; 49476</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>324197; 451579</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>326156; 493095</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48035; 61912</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>48356; 62743</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>688558; 913418</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>640204; 926520</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>97641; 118488</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>86603; 107373</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
